--- a/1393420028.xlsx
+++ b/1393420028.xlsx
@@ -100,7 +100,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
